--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/Pythonproject/ProjetSynthese/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6088530-7D91-464C-AE21-6A672DC80CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718B3998-2A9C-6F49-914B-3BD97884537F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="1800" windowWidth="24160" windowHeight="16340" xr2:uid="{742A85E6-A897-0347-82F7-E988D294AC22}"/>
+    <workbookView xWindow="9440" yWindow="1800" windowWidth="24160" windowHeight="16340" xr2:uid="{742A85E6-A897-0347-82F7-E988D294AC22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>profA</t>
   </si>
@@ -490,9 +490,8 @@
       <c r="E1" s="2">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="str">
-        <f>A1</f>
-        <v>profA</v>
+      <c r="G1" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="H1" s="7">
         <v>5</v>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/Pythonproject/ProjetSynthese/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIO\Downloads\ProjetSynthese\ProjetSynthese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718B3998-2A9C-6F49-914B-3BD97884537F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9EC290-3EEE-42A0-9841-C1CCE09DFC2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="1800" windowWidth="24160" windowHeight="16340" xr2:uid="{742A85E6-A897-0347-82F7-E988D294AC22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{742A85E6-A897-0347-82F7-E988D294AC22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>profA</t>
   </si>
@@ -48,22 +37,24 @@
   <si>
     <t>profC</t>
   </si>
+  <si>
+    <t>profD</t>
+  </si>
+  <si>
+    <t>profE</t>
+  </si>
+  <si>
+    <t>profF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,9 +138,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -169,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -465,19 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F722EC91-9246-724E-964A-2E9F8EBFA33E}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G1" sqref="G1:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="111.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2">
         <v>2</v>
@@ -493,11 +484,11 @@
       <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="7">
-        <v>5</v>
+      <c r="H1" s="6">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -505,19 +496,19 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -525,16 +516,40 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G5" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +563,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -560,7 +575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
